--- a/medicine/Psychotrope/Cinsault/Cinsault.xlsx
+++ b/medicine/Psychotrope/Cinsault/Cinsault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cinsault ou cinsaut est un cépage français noir à jus blanc qui entre dans l’élaboration de nombreuses AOC.
@@ -512,7 +524,9 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que son origine soit la Provence. De là, il a gagné la vallée du Rhône, le Languedoc-Roussillon, puis l'Algérie : en effet, il permet des rendements importants et au XXe siècle, il a beaucoup été planté pour remplacer les hybrides producteurs directs. Il couvre près de 24 773 ha en 2006 en France.
 Il existe de nombreux clones.
@@ -545,11 +559,13 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux blanc à bordure rouge.
-Les feuilles, d'un vert foncé en dessus, sont très cotonneuses en dessous[1]. Feuilles adultes orbiculaires à 5 lobes, avec sinus pétiolaire presque fermé, des sinus latéraux profonds en V, des dents longues, un limbe involuté.
-Rameaux côtelés glabres avec de grandes vrilles. Sarment violacé, noué court[1].</t>
+Les feuilles, d'un vert foncé en dessus, sont très cotonneuses en dessous. Feuilles adultes orbiculaires à 5 lobes, avec sinus pétiolaire presque fermé, des sinus latéraux profonds en V, des dents longues, un limbe involuté.
+Rameaux côtelés glabres avec de grandes vrilles. Sarment violacé, noué court.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cépage de deuxième époque, trois semaines après le chasselas B.
 C'est un cépage fertile, productif, très résistant à la sécheresse. En terrain fertile, sa production est très élevée et la qualité s'en ressent. Le cinsault N doit donc être réservé aux terres pauvres et sèches pour obtenir une récolte régulière et de bonne qualité. Il est peu vigoureux, son bois est de faible diamètre et son port retombant. Il doit donc être taillé court. Le vieillissement des souches est assez rapide.
@@ -610,9 +628,11 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grappes et les baies sont grosses. Le rendement en jus est élevé. Ses grappes sont munies d'un pédoncule robuste auquel sont suspendus des grains en forme d'olives, à peau épaisse, à chair ferme et d'une saveur toujours douce, même lorsqu'ils n'ont pas atteint leur complète maturité[1]. Ses gros grains juteux se consomment aussi en raisin frais. Il peut alors être commercialisé sous le nom d'œillade.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grappes et les baies sont grosses. Le rendement en jus est élevé. Ses grappes sont munies d'un pédoncule robuste auquel sont suspendus des grains en forme d'olives, à peau épaisse, à chair ferme et d'une saveur toujours douce, même lorsqu'ils n'ont pas atteint leur complète maturité. Ses gros grains juteux se consomment aussi en raisin frais. Il peut alors être commercialisé sous le nom d'œillade.
 Autrefois, il était planté avec le grenache pour apporter souplesse, finesse et fruité à l'assemblage. Les plantations massives en plaine fertile ont beaucoup nui à sa réputation. Pourtant, en terrain pauvre et sec, il donne des vins fruités, agréables, souples, et d'excellents rosés.
 </t>
         </is>
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cinsault est connu aussi sous les noms suivants :
 black Malvoisie
